--- a/Gui/output_templates/K40_template.xlsx
+++ b/Gui/output_templates/K40_template.xlsx
@@ -12,10 +12,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16470" windowHeight="10230"/>
   </bookViews>
   <sheets>
-    <sheet name="template" sheetId="1" r:id="rId1"/>
+    <sheet name="K40" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">template!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'K40'!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>ID</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Operatorius</t>
+  </si>
+  <si>
+    <t>Defektoskopas</t>
   </si>
 </sst>
 </file>
@@ -438,59 +441,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="1" max="1" width="11.28515625" style="3" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="6" style="3" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" style="2" customWidth="1"/>
-    <col min="6" max="6" width="5.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="4.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="3"/>
-    <col min="10" max="11" width="11.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="3"/>
+    <col min="4" max="5" width="11.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="6" style="3" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" style="2" customWidth="1"/>
+    <col min="10" max="10" width="5.140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="4.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
